--- a/BoardPerformance.xlsx
+++ b/BoardPerformance.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\DataSets for STRAND\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D67FEBE-6E60-416B-927C-8E31A3FA62D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471F5821-1394-4289-84A8-F2C9C22323E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Problems" sheetId="2" r:id="rId2"/>
     <sheet name="Terms" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -546,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C401"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +585,7 @@
         <v>-0.98741845405263884</v>
       </c>
       <c r="C2">
-        <v>0.24553656125724191</v>
+        <v>-0.98741845405263884</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -585,7 +596,7 @@
         <v>0.65271582443794585</v>
       </c>
       <c r="C3">
-        <v>1.111611508988479</v>
+        <v>0.65271582443794585</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -596,7 +607,7 @@
         <v>1.444354290010236</v>
       </c>
       <c r="C4">
-        <v>0.70541018767145314</v>
+        <v>1.444354290010236</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -607,7 +618,7 @@
         <v>0.32809279675687181</v>
       </c>
       <c r="C5">
-        <v>0.26453323916714011</v>
+        <v>0.32809279675687181</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -618,7 +629,7 @@
         <v>1.0802400165383961</v>
       </c>
       <c r="C6">
-        <v>1.473006487267984</v>
+        <v>1.0802400165383961</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -629,7 +640,7 @@
         <v>0.65566545500163054</v>
       </c>
       <c r="C7">
-        <v>0.46228632280526288</v>
+        <v>0.65566545500163054</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -640,7 +651,7 @@
         <v>0.32130874578891683</v>
       </c>
       <c r="C8">
-        <v>-0.18588959947924241</v>
+        <v>0.32130874578891683</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -651,7 +662,7 @@
         <v>-1.118115313371939</v>
       </c>
       <c r="C9">
-        <v>-0.29106010508538133</v>
+        <v>-1.118115313371939</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -662,7 +673,7 @@
         <v>-0.84206315904666551</v>
       </c>
       <c r="C10">
-        <v>-2.5537644001356541</v>
+        <v>-0.84206315904666551</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -673,7 +684,7 @@
         <v>-0.47680810270997209</v>
       </c>
       <c r="C11">
-        <v>-0.45324758292274531</v>
+        <v>-0.47680810270997209</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -684,7 +695,7 @@
         <v>0.1627955512982566</v>
       </c>
       <c r="C12">
-        <v>-0.31122470603807673</v>
+        <v>0.1627955512982566</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -695,7 +706,7 @@
         <v>-0.51658090028021153</v>
       </c>
       <c r="C13">
-        <v>-0.178461532487177</v>
+        <v>-0.51658090028021153</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -706,7 +717,7 @@
         <v>-0.17344446706547681</v>
       </c>
       <c r="C14">
-        <v>-0.37654145846440779</v>
+        <v>-0.17344446706547681</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -717,7 +728,7 @@
         <v>-0.77150249034786522</v>
       </c>
       <c r="C15">
-        <v>-0.2356861793143655</v>
+        <v>-0.77150249034786522</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -728,7 +739,7 @@
         <v>-0.44747161833256238</v>
       </c>
       <c r="C16">
-        <v>-0.25373367463806978</v>
+        <v>-0.44747161833256238</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -739,7 +750,7 @@
         <v>1.400655895682176</v>
       </c>
       <c r="C17">
-        <v>0.71938627473079575</v>
+        <v>1.400655895682176</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -750,7 +761,7 @@
         <v>0.48720896342519621</v>
       </c>
       <c r="C18">
-        <v>1.6644831998076091</v>
+        <v>0.48720896342519621</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -761,7 +772,7 @@
         <v>4.8605923274119583E-2</v>
       </c>
       <c r="C19">
-        <v>0.32992289797498459</v>
+        <v>4.8605923274119583E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -772,7 +783,7 @@
         <v>-0.73606936178806759</v>
       </c>
       <c r="C20">
-        <v>-0.16747210094532039</v>
+        <v>-0.73606936178806759</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -783,7 +794,7 @@
         <v>0.6140688327475462</v>
       </c>
       <c r="C21">
-        <v>1.46732025109931</v>
+        <v>0.6140688327475462</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -794,7 +805,7 @@
         <v>0.52469131995757978</v>
       </c>
       <c r="C22">
-        <v>-0.6341534511518242</v>
+        <v>0.52469131995757978</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -805,7 +816,7 @@
         <v>-1.3078163018746769</v>
       </c>
       <c r="C23">
-        <v>-1.5238182973378109</v>
+        <v>-1.3078163018746769</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -816,7 +827,7 @@
         <v>-0.92003290729958276</v>
       </c>
       <c r="C24">
-        <v>-0.83323995528768136</v>
+        <v>-0.92003290729958276</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -827,7 +838,7 @@
         <v>1.6384299115262431</v>
       </c>
       <c r="C25">
-        <v>1.9832775980726129</v>
+        <v>1.6384299115262431</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -838,7 +849,7 @@
         <v>0.2325604417589594</v>
       </c>
       <c r="C26">
-        <v>9.6829639995966638E-2</v>
+        <v>0.2325604417589594</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -849,7 +860,7 @@
         <v>-1.5701700159655849</v>
       </c>
       <c r="C27">
-        <v>-2.3032054430869469</v>
+        <v>-1.5701700159655849</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -860,7 +871,7 @@
         <v>0.1115360131975755</v>
       </c>
       <c r="C28">
-        <v>0.41857957659171108</v>
+        <v>0.1115360131975755</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -871,7 +882,7 @@
         <v>-0.66990247699170791</v>
       </c>
       <c r="C29">
-        <v>-0.67383540683549192</v>
+        <v>-0.66990247699170791</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -882,7 +893,7 @@
         <v>0.44106485486844071</v>
       </c>
       <c r="C30">
-        <v>1.4135011493184051</v>
+        <v>0.44106485486844071</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -893,7 +904,7 @@
         <v>-0.2867074956141748</v>
       </c>
       <c r="C31">
-        <v>-0.56487803778447232</v>
+        <v>-0.2867074956141748</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -904,7 +915,7 @@
         <v>-1.78871372788648</v>
       </c>
       <c r="C32">
-        <v>-1.406454030016651</v>
+        <v>-1.78871372788648</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -915,7 +926,7 @@
         <v>-0.35770730862780159</v>
       </c>
       <c r="C33">
-        <v>-1.1952417130888819</v>
+        <v>-0.35770730862780159</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -926,7 +937,7 @@
         <v>0.1340744959360779</v>
       </c>
       <c r="C34">
-        <v>-0.93686326361831274</v>
+        <v>0.1340744959360779</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -937,7 +948,7 @@
         <v>-1.413195129925048</v>
       </c>
       <c r="C35">
-        <v>0.31624746997818182</v>
+        <v>-1.413195129925048</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -948,7 +959,7 @@
         <v>-0.78569350593707843</v>
       </c>
       <c r="C36">
-        <v>-0.1765508722653176</v>
+        <v>-0.78569350593707843</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -959,7 +970,7 @@
         <v>-0.59790250696046143</v>
       </c>
       <c r="C37">
-        <v>-0.73550177095767744</v>
+        <v>-0.59790250696046143</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -970,7 +981,7 @@
         <v>0.24699427970715321</v>
       </c>
       <c r="C38">
-        <v>-0.1321359026748064</v>
+        <v>0.24699427970715321</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -981,7 +992,7 @@
         <v>0.35228097591215102</v>
       </c>
       <c r="C39">
-        <v>0.74333790448187009</v>
+        <v>0.35228097591215102</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -992,7 +1003,7 @@
         <v>1.9099011288358061</v>
       </c>
       <c r="C40">
-        <v>1.130860013456719</v>
+        <v>1.9099011288358061</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1003,7 +1014,7 @@
         <v>-0.12789889404800051</v>
       </c>
       <c r="C41">
-        <v>0.5945936127392184</v>
+        <v>-0.12789889404800051</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1014,7 +1025,7 @@
         <v>-0.38714309715542822</v>
       </c>
       <c r="C42">
-        <v>-0.34115823177329052</v>
+        <v>-0.38714309715542822</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1025,7 +1036,7 @@
         <v>0.75666247653957441</v>
       </c>
       <c r="C43">
-        <v>0.18283999132788659</v>
+        <v>0.75666247653957441</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1036,7 +1047,7 @@
         <v>-0.26073156336595021</v>
       </c>
       <c r="C44">
-        <v>-1.020659508999366</v>
+        <v>-0.26073156336595021</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1047,7 +1058,7 @@
         <v>0.40636381564786928</v>
       </c>
       <c r="C45">
-        <v>0.7310559492360762</v>
+        <v>0.40636381564786928</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1058,7 +1069,7 @@
         <v>0.64422985962670198</v>
       </c>
       <c r="C46">
-        <v>1.8203946791997461</v>
+        <v>0.64422985962670198</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1069,7 +1080,7 @@
         <v>-7.7512215701285872E-2</v>
       </c>
       <c r="C47">
-        <v>-0.27884174981772708</v>
+        <v>-7.7512215701285872E-2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1080,7 +1091,7 @@
         <v>1.78333858105775</v>
       </c>
       <c r="C48">
-        <v>0.79901472844282051</v>
+        <v>1.78333858105775</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1091,7 +1102,7 @@
         <v>6.8249302348927121E-2</v>
       </c>
       <c r="C49">
-        <v>0.39405555653572422</v>
+        <v>6.8249302348927121E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1102,7 +1113,7 @@
         <v>-0.87498534533340422</v>
       </c>
       <c r="C50">
-        <v>-0.55737516116451868</v>
+        <v>-0.87498534533340422</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1113,7 +1124,7 @@
         <v>-0.59430984466881065</v>
       </c>
       <c r="C51">
-        <v>-1.567030263312863</v>
+        <v>-0.59430984466881065</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1124,7 +1135,7 @@
         <v>0.14071176469040039</v>
       </c>
       <c r="C52">
-        <v>-1.087351612167222</v>
+        <v>0.14071176469040039</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1135,7 +1146,7 @@
         <v>-0.40740603145248078</v>
       </c>
       <c r="C53">
-        <v>-0.46634893251221088</v>
+        <v>-0.40740603145248078</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,7 +1157,7 @@
         <v>0.77809325401746032</v>
       </c>
       <c r="C54">
-        <v>1.4072539510444551</v>
+        <v>0.77809325401746032</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1157,7 +1168,7 @@
         <v>0.79256314685964013</v>
       </c>
       <c r="C55">
-        <v>0.88678482685766069</v>
+        <v>0.79256314685964013</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1168,7 +1179,7 @@
         <v>-2.7713717633174939</v>
       </c>
       <c r="C56">
-        <v>-2.6329941956392862</v>
+        <v>-2.7713717633174939</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1179,7 +1190,7 @@
         <v>-0.90592527784773669</v>
       </c>
       <c r="C57">
-        <v>-0.78449698647555721</v>
+        <v>-0.90592527784773669</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1190,7 +1201,7 @@
         <v>-0.43074661461917041</v>
       </c>
       <c r="C58">
-        <v>-0.42581072881590049</v>
+        <v>-0.43074661461917041</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1201,7 +1212,7 @@
         <v>-0.52502558296313662</v>
       </c>
       <c r="C59">
-        <v>1.037987759870544</v>
+        <v>-0.52502558296313662</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1212,7 +1223,7 @@
         <v>2.8098877737666009E-2</v>
       </c>
       <c r="C60">
-        <v>-0.79630538259476569</v>
+        <v>2.8098877737666009E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1223,7 +1234,7 @@
         <v>-0.72079759614689831</v>
       </c>
       <c r="C61">
-        <v>-0.4583774073051724</v>
+        <v>-0.72079759614689831</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1234,7 +1245,7 @@
         <v>-2.544167721199007</v>
       </c>
       <c r="C62">
-        <v>-1.5928504188585451</v>
+        <v>-2.544167721199007</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1245,7 +1256,7 @@
         <v>1.7641342431673701</v>
       </c>
       <c r="C63">
-        <v>0.1904757142911932</v>
+        <v>1.7641342431673701</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1256,7 +1267,7 @@
         <v>-0.13117874134932789</v>
       </c>
       <c r="C64">
-        <v>-0.27014147158608798</v>
+        <v>-0.13117874134932789</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1267,7 +1278,7 @@
         <v>-6.1418634926121429E-3</v>
       </c>
       <c r="C65">
-        <v>-1.003833217434466</v>
+        <v>-6.1418634926121429E-3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1278,7 +1289,7 @@
         <v>-0.17888609937250519</v>
       </c>
       <c r="C66">
-        <v>-0.19251501767431611</v>
+        <v>-0.17888609937250519</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1289,7 +1300,7 @@
         <v>1.4697470568059661</v>
       </c>
       <c r="C67">
-        <v>1.084215866489465</v>
+        <v>1.4697470568059661</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1300,7 +1311,7 @@
         <v>0.13723150866206429</v>
       </c>
       <c r="C68">
-        <v>-0.12537298370030259</v>
+        <v>0.13723150866206429</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1311,7 +1322,7 @@
         <v>1.0803550941877149</v>
       </c>
       <c r="C69">
-        <v>0.70521401542688056</v>
+        <v>1.0803550941877149</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1322,7 +1333,7 @@
         <v>-0.22375389930355499</v>
       </c>
       <c r="C70">
-        <v>4.6013029934367823E-2</v>
+        <v>-0.22375389930355499</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1333,7 +1344,7 @@
         <v>0.1675265631224705</v>
       </c>
       <c r="C71">
-        <v>0.82047257968709597</v>
+        <v>0.1675265631224705</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1344,7 +1355,7 @@
         <v>-0.54990627830400374</v>
       </c>
       <c r="C72">
-        <v>-1.218165712979397</v>
+        <v>-0.54990627830400374</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1355,7 +1366,7 @@
         <v>1.058235460616799</v>
       </c>
       <c r="C73">
-        <v>1.5068342917230659</v>
+        <v>1.058235460616799</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1366,7 +1377,7 @@
         <v>0.75492137570748352</v>
       </c>
       <c r="C74">
-        <v>0.42018124101203469</v>
+        <v>0.75492137570748352</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1377,7 +1388,7 @@
         <v>-0.41045668115522749</v>
       </c>
       <c r="C75">
-        <v>-0.7359262967226462</v>
+        <v>-0.41045668115522749</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1388,7 +1399,7 @@
         <v>-6.5489212041055483E-2</v>
       </c>
       <c r="C76">
-        <v>0.26811451218882698</v>
+        <v>-6.5489212041055483E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1399,7 +1410,7 @@
         <v>-0.18866802463031709</v>
       </c>
       <c r="C77">
-        <v>-1.2031064560197879</v>
+        <v>-0.18866802463031709</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1410,7 +1421,7 @@
         <v>-0.23014928090900999</v>
       </c>
       <c r="C78">
-        <v>0.57944197582326895</v>
+        <v>-0.23014928090900999</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1421,7 +1432,7 @@
         <v>-0.7681771134571882</v>
       </c>
       <c r="C79">
-        <v>-1.801893033743682</v>
+        <v>-0.7681771134571882</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1432,7 +1443,7 @@
         <v>8.8943921039658702E-2</v>
       </c>
       <c r="C80">
-        <v>0.71914399471671775</v>
+        <v>8.8943921039658702E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1443,7 +1454,7 @@
         <v>0.17444451599827229</v>
       </c>
       <c r="C81">
-        <v>5.9385910331888378E-2</v>
+        <v>0.17444451599827229</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1454,7 +1465,7 @@
         <v>-0.76614118172816004</v>
       </c>
       <c r="C82">
-        <v>-1.288495933837176</v>
+        <v>-0.76614118172816004</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1465,7 +1476,7 @@
         <v>-1.216696262787091</v>
       </c>
       <c r="C83">
-        <v>-0.65749285526115453</v>
+        <v>-1.216696262787091</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1476,7 +1487,7 @@
         <v>-0.7092522465192691</v>
       </c>
       <c r="C84">
-        <v>-0.34677787562200829</v>
+        <v>-0.7092522465192691</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1487,7 +1498,7 @@
         <v>0.31237304334948512</v>
       </c>
       <c r="C85">
-        <v>0.39430806357094789</v>
+        <v>0.31237304334948512</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1498,7 +1509,7 @@
         <v>-0.46481937586738092</v>
       </c>
       <c r="C86">
-        <v>-2.6486738045691132</v>
+        <v>-0.46481937586738092</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1509,7 +1520,7 @@
         <v>-0.30682191448140589</v>
       </c>
       <c r="C87">
-        <v>-0.47624640463657142</v>
+        <v>-0.30682191448140589</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1520,7 +1531,7 @@
         <v>1.7267323032521329</v>
       </c>
       <c r="C88">
-        <v>1.6025185685194021</v>
+        <v>1.7267323032521329</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1531,7 +1542,7 @@
         <v>-0.64283445973535103</v>
       </c>
       <c r="C89">
-        <v>-1.5063476197989969</v>
+        <v>-0.64283445973535103</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1542,7 +1553,7 @@
         <v>-0.94816064097203823</v>
       </c>
       <c r="C90">
-        <v>0.19701544628111331</v>
+        <v>-0.94816064097203823</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1553,7 +1564,7 @@
         <v>4.6656241360267081E-2</v>
       </c>
       <c r="C91">
-        <v>0.44919386633521302</v>
+        <v>4.6656241360267081E-2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1564,7 +1575,7 @@
         <v>-0.51629145096124462</v>
       </c>
       <c r="C92">
-        <v>-1.407420803884194</v>
+        <v>-0.51629145096124462</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1575,7 +1586,7 @@
         <v>0.65739156423449274</v>
       </c>
       <c r="C93">
-        <v>1.1878951805789999</v>
+        <v>0.65739156423449274</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1586,7 +1597,7 @@
         <v>1.6240001791431451</v>
       </c>
       <c r="C94">
-        <v>1.2765373948472669</v>
+        <v>1.6240001791431451</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1597,7 +1608,7 @@
         <v>1.7230162938257261</v>
       </c>
       <c r="C95">
-        <v>0.72070750931733829</v>
+        <v>1.7230162938257261</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -1608,7 +1619,7 @@
         <v>0.47982931886231017</v>
       </c>
       <c r="C96">
-        <v>0.37959953259983331</v>
+        <v>0.47982931886231017</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1619,7 +1630,7 @@
         <v>0.24041436142718961</v>
       </c>
       <c r="C97">
-        <v>3.5329480355378161E-2</v>
+        <v>0.24041436142718961</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -1630,7 +1641,7 @@
         <v>-9.3465380246677443E-2</v>
       </c>
       <c r="C98">
-        <v>-0.66150629944848449</v>
+        <v>-9.3465380246677443E-2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -1641,7 +1652,7 @@
         <v>-1.203617567773438</v>
       </c>
       <c r="C99">
-        <v>-0.4482807216874623</v>
+        <v>-1.203617567773438</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -1652,7 +1663,7 @@
         <v>1.039123722005594</v>
       </c>
       <c r="C100">
-        <v>0.60783913594467043</v>
+        <v>1.039123722005594</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -1663,7 +1674,7 @@
         <v>1.0821975551496199</v>
       </c>
       <c r="C101">
-        <v>1.2354635913897101</v>
+        <v>1.0821975551496199</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -1674,7 +1685,7 @@
         <v>1.408991354603977</v>
       </c>
       <c r="C102">
-        <v>1.1025230777646871</v>
+        <v>1.408991354603977</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -1685,7 +1696,7 @@
         <v>-1.3008175665287309</v>
       </c>
       <c r="C103">
-        <v>-0.5220417568865382</v>
+        <v>-1.3008175665287309</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -1696,7 +1707,7 @@
         <v>0.87358840382005531</v>
       </c>
       <c r="C104">
-        <v>-0.30455759904805008</v>
+        <v>0.87358840382005531</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -1707,7 +1718,7 @@
         <v>0.6030112998675824</v>
       </c>
       <c r="C105">
-        <v>1.635824182388629</v>
+        <v>0.6030112998675824</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -1718,7 +1729,7 @@
         <v>0.59083995392790811</v>
       </c>
       <c r="C106">
-        <v>1.1555060767284251</v>
+        <v>0.59083995392790811</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -1729,7 +1740,7 @@
         <v>5.8033376299333257E-2</v>
       </c>
       <c r="C107">
-        <v>0.11111405559165879</v>
+        <v>5.8033376299333257E-2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -1740,7 +1751,7 @@
         <v>-1.1489085354893649</v>
       </c>
       <c r="C108">
-        <v>-1.2042862572891611</v>
+        <v>-1.1489085354893649</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -1751,7 +1762,7 @@
         <v>0.1667503518848901</v>
       </c>
       <c r="C109">
-        <v>1.230405037369231</v>
+        <v>0.1667503518848901</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -1762,7 +1773,7 @@
         <v>0.45674756364039892</v>
       </c>
       <c r="C110">
-        <v>0.36626484287536631</v>
+        <v>0.45674756364039892</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -1773,7 +1784,7 @@
         <v>5.4050129109191943E-2</v>
       </c>
       <c r="C111">
-        <v>-0.60025638356636046</v>
+        <v>5.4050129109191943E-2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -1784,7 +1795,7 @@
         <v>0.77899080739541493</v>
       </c>
       <c r="C112">
-        <v>0.63072059346223852</v>
+        <v>0.77899080739541493</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -1795,7 +1806,7 @@
         <v>1.3011995179242739</v>
       </c>
       <c r="C113">
-        <v>1.036631536076396</v>
+        <v>1.3011995179242739</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -1806,7 +1817,7 @@
         <v>1.680041156847635</v>
       </c>
       <c r="C114">
-        <v>1.366994174111803</v>
+        <v>1.680041156847635</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -1817,7 +1828,7 @@
         <v>-0.1871838777980892</v>
       </c>
       <c r="C115">
-        <v>-1.078117624507297</v>
+        <v>-0.1871838777980892</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -1828,7 +1839,7 @@
         <v>-2.0260386295100621</v>
       </c>
       <c r="C116">
-        <v>-1.9628400947958939</v>
+        <v>-2.0260386295100621</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -1839,7 +1850,7 @@
         <v>-0.37056575810697001</v>
       </c>
       <c r="C117">
-        <v>0.45283842992038459</v>
+        <v>-0.37056575810697001</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -1850,7 +1861,7 @@
         <v>1.1423780522234881</v>
       </c>
       <c r="C118">
-        <v>0.86457438017275445</v>
+        <v>1.1423780522234881</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -1861,7 +1872,7 @@
         <v>2.098715208875364</v>
       </c>
       <c r="C119">
-        <v>0.76671882805519409</v>
+        <v>2.098715208875364</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -1872,7 +1883,7 @@
         <v>0.38219074058324159</v>
       </c>
       <c r="C120">
-        <v>0.25608668164207232</v>
+        <v>0.38219074058324159</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -1883,7 +1894,7 @@
         <v>0.57143692571377747</v>
       </c>
       <c r="C121">
-        <v>1.189837189627371</v>
+        <v>0.57143692571377747</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -1894,7 +1905,7 @@
         <v>-0.56513783537368867</v>
       </c>
       <c r="C122">
-        <v>-2.160282391355348E-2</v>
+        <v>-0.56513783537368867</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -1905,7 +1916,7 @@
         <v>0.75585357190854308</v>
       </c>
       <c r="C123">
-        <v>-0.12307149430217811</v>
+        <v>0.75585357190854308</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -1916,7 +1927,7 @@
         <v>0.25338428558466131</v>
       </c>
       <c r="C124">
-        <v>-0.3495411872322044</v>
+        <v>0.25338428558466131</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -1927,7 +1938,7 @@
         <v>0.60703015376928871</v>
       </c>
       <c r="C125">
-        <v>1.1818649318745571</v>
+        <v>0.60703015376928871</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -1938,7 +1949,7 @@
         <v>1.80359650073624</v>
       </c>
       <c r="C126">
-        <v>1.5488605858205511</v>
+        <v>1.80359650073624</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -1949,7 +1960,7 @@
         <v>-0.44513830044805092</v>
       </c>
       <c r="C127">
-        <v>-1.0542347007820969</v>
+        <v>-0.44513830044805092</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -1960,7 +1971,7 @@
         <v>1.1943526166831431</v>
       </c>
       <c r="C128">
-        <v>0.62889826628042433</v>
+        <v>1.1943526166831431</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -1971,7 +1982,7 @@
         <v>-1.9708773813874889</v>
       </c>
       <c r="C129">
-        <v>-0.94323956962545019</v>
+        <v>-1.9708773813874889</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -1982,7 +1993,7 @@
         <v>-0.2420926516461841</v>
       </c>
       <c r="C130">
-        <v>-0.4597751774606178</v>
+        <v>-0.2420926516461841</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -1993,7 +2004,7 @@
         <v>-0.10495266576326071</v>
       </c>
       <c r="C131">
-        <v>-1.3554583266832769</v>
+        <v>-0.10495266576326071</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -2004,7 +2015,7 @@
         <v>-0.75423398224771521</v>
       </c>
       <c r="C132">
-        <v>-0.5022965863970742</v>
+        <v>-0.75423398224771521</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -2015,7 +2026,7 @@
         <v>-0.89154500656395153</v>
       </c>
       <c r="C133">
-        <v>-0.83376041890359964</v>
+        <v>-0.89154500656395153</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -2026,7 +2037,7 @@
         <v>-0.29450691421796332</v>
       </c>
       <c r="C134">
-        <v>0.28134772300090399</v>
+        <v>-0.29450691421796332</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -2037,7 +2048,7 @@
         <v>-0.52853326327067951</v>
       </c>
       <c r="C135">
-        <v>-0.91015610137291159</v>
+        <v>-0.52853326327067951</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -2048,7 +2059,7 @@
         <v>0.16191156734789691</v>
       </c>
       <c r="C136">
-        <v>0.84612936574409525</v>
+        <v>0.16191156734789691</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -2059,7 +2070,7 @@
         <v>-0.42763583753075313</v>
       </c>
       <c r="C137">
-        <v>-1.326872840832928</v>
+        <v>-0.42763583753075313</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -2070,7 +2081,7 @@
         <v>-1.556036803699794</v>
       </c>
       <c r="C138">
-        <v>-0.88414537142287597</v>
+        <v>-1.556036803699794</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -2081,7 +2092,7 @@
         <v>0.97283746509267122</v>
       </c>
       <c r="C139">
-        <v>-5.2070823139468113E-2</v>
+        <v>0.97283746509267122</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -2092,7 +2103,7 @@
         <v>0.64879339030572414</v>
       </c>
       <c r="C140">
-        <v>-0.2064097214244926</v>
+        <v>0.64879339030572414</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -2103,7 +2114,7 @@
         <v>2.1498113244038959</v>
       </c>
       <c r="C141">
-        <v>1.1706659528756009</v>
+        <v>2.1498113244038959</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -2114,7 +2125,7 @@
         <v>0.48614805961950908</v>
       </c>
       <c r="C142">
-        <v>-0.46580255065424858</v>
+        <v>0.48614805961950908</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -2125,7 +2136,7 @@
         <v>9.8678628755741182E-2</v>
       </c>
       <c r="C143">
-        <v>0.62651957966561922</v>
+        <v>9.8678628755741182E-2</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -2136,7 +2147,7 @@
         <v>-2.3030640042725281</v>
       </c>
       <c r="C144">
-        <v>-2.1105586586389489</v>
+        <v>-2.3030640042725281</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -2147,7 +2158,7 @@
         <v>-0.95534727624784033</v>
       </c>
       <c r="C145">
-        <v>-1.5001193725704569</v>
+        <v>-0.95534727624784033</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -2158,7 +2169,7 @@
         <v>0.28529952136388043</v>
       </c>
       <c r="C146">
-        <v>4.1387778881753247E-2</v>
+        <v>0.28529952136388043</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -2169,7 +2180,7 @@
         <v>-0.80775527864256291</v>
       </c>
       <c r="C147">
-        <v>-0.68940198911962058</v>
+        <v>-0.80775527864256291</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -2180,7 +2191,7 @@
         <v>-1.057875697549663</v>
       </c>
       <c r="C148">
-        <v>-0.86652059949747007</v>
+        <v>-1.057875697549663</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -2191,7 +2202,7 @@
         <v>-0.20881863594361169</v>
       </c>
       <c r="C149">
-        <v>0.4586943339340277</v>
+        <v>-0.20881863594361169</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -2202,7 +2213,7 @@
         <v>-0.13354335639447321</v>
       </c>
       <c r="C150">
-        <v>-0.10159618666172569</v>
+        <v>-0.13354335639447321</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -2213,7 +2224,7 @@
         <v>-1.0842788800890599</v>
       </c>
       <c r="C151">
-        <v>-1.4517456294750599</v>
+        <v>-1.0842788800890599</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -2224,7 +2235,7 @@
         <v>-8.4621149851682786E-2</v>
       </c>
       <c r="C152">
-        <v>0.44495575836329099</v>
+        <v>-8.4621149851682786E-2</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -2235,7 +2246,7 @@
         <v>-1.090345207769119E-2</v>
       </c>
       <c r="C153">
-        <v>8.516194406498985E-2</v>
+        <v>-1.090345207769119E-2</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -2246,7 +2257,7 @@
         <v>1.9157440688400711</v>
       </c>
       <c r="C154">
-        <v>0.65677487540195689</v>
+        <v>1.9157440688400711</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -2257,7 +2268,7 @@
         <v>-1.279088970524306</v>
       </c>
       <c r="C155">
-        <v>-1.12990937708859</v>
+        <v>-1.279088970524306</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -2268,7 +2279,7 @@
         <v>1.060504703711913E-2</v>
       </c>
       <c r="C156">
-        <v>-9.0494732330611855E-3</v>
+        <v>1.060504703711913E-2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -2279,7 +2290,7 @@
         <v>-0.87532161364555217</v>
       </c>
       <c r="C157">
-        <v>-0.2145485325078475</v>
+        <v>-0.87532161364555217</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -2290,7 +2301,7 @@
         <v>-0.51149741922262315</v>
       </c>
       <c r="C158">
-        <v>-1.1125470578570209</v>
+        <v>-0.51149741922262315</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -2301,7 +2312,7 @@
         <v>1.3590291702968671</v>
       </c>
       <c r="C159">
-        <v>0.36303898523115291</v>
+        <v>1.3590291702968671</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -2312,7 +2323,7 @@
         <v>-9.5245883990097993E-2</v>
       </c>
       <c r="C160">
-        <v>-0.26995005733396488</v>
+        <v>-9.5245883990097993E-2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -2323,7 +2334,7 @@
         <v>0.1010062765461425</v>
       </c>
       <c r="C161">
-        <v>0.67534772095890383</v>
+        <v>0.1010062765461425</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -2334,7 +2345,7 @@
         <v>-5.7213096162179782E-2</v>
       </c>
       <c r="C162">
-        <v>8.2561124279320941E-2</v>
+        <v>-5.7213096162179782E-2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -2345,7 +2356,7 @@
         <v>1.2347688351067641</v>
       </c>
       <c r="C163">
-        <v>1.6469521498397139</v>
+        <v>1.2347688351067641</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -2356,7 +2367,7 @@
         <v>0.66037275898648384</v>
       </c>
       <c r="C164">
-        <v>0.57898201665522753</v>
+        <v>0.66037275898648384</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -2367,7 +2378,7 @@
         <v>0.5560347066254161</v>
       </c>
       <c r="C165">
-        <v>8.6954265646993767E-2</v>
+        <v>0.5560347066254161</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -2378,7 +2389,7 @@
         <v>-1.0130220824608649</v>
       </c>
       <c r="C166">
-        <v>-0.83180597655607103</v>
+        <v>-1.0130220824608649</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -2389,7 +2400,7 @@
         <v>1.144647652162015</v>
       </c>
       <c r="C167">
-        <v>0.87404280094034259</v>
+        <v>1.144647652162015</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -2400,7 +2411,7 @@
         <v>1.5914110239175461</v>
       </c>
       <c r="C168">
-        <v>1.2098752891383759</v>
+        <v>1.5914110239175461</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -2411,7 +2422,7 @@
         <v>-0.31572165690367049</v>
       </c>
       <c r="C169">
-        <v>-0.78064300441537848</v>
+        <v>-0.31572165690367049</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -2422,7 +2433,7 @@
         <v>7.7785901862582468E-2</v>
       </c>
       <c r="C170">
-        <v>-0.31402190755579518</v>
+        <v>7.7785901862582468E-2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -2433,7 +2444,7 @@
         <v>0.30733930794467418</v>
       </c>
       <c r="C171">
-        <v>1.0768246790937379</v>
+        <v>0.30733930794467418</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -2444,7 +2455,7 @@
         <v>0.87370218865133187</v>
       </c>
       <c r="C172">
-        <v>1.092492693106935</v>
+        <v>0.87370218865133187</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -2455,7 +2466,7 @@
         <v>-0.47634342586355488</v>
       </c>
       <c r="C173">
-        <v>-0.19158710351586161</v>
+        <v>-0.47634342586355488</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -2466,7 +2477,7 @@
         <v>-0.37463742276266748</v>
       </c>
       <c r="C174">
-        <v>-0.52811906937034547</v>
+        <v>-0.37463742276266748</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -2477,7 +2488,7 @@
         <v>0.26879766348260792</v>
       </c>
       <c r="C175">
-        <v>-0.25890893897435291</v>
+        <v>0.26879766348260792</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -2488,7 +2499,7 @@
         <v>2.0485579771090721</v>
       </c>
       <c r="C176">
-        <v>2.0752480246928271</v>
+        <v>2.0485579771090721</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -2499,7 +2510,7 @@
         <v>-0.6079805251160274</v>
       </c>
       <c r="C177">
-        <v>-4.2888874385327437E-2</v>
+        <v>-0.6079805251160274</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -2510,7 +2521,7 @@
         <v>-0.59405790050962004</v>
       </c>
       <c r="C178">
-        <v>-0.2683131584457874</v>
+        <v>-0.59405790050962004</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -2521,7 +2532,7 @@
         <v>-0.5485781517513858</v>
       </c>
       <c r="C179">
-        <v>-0.98757440424081466</v>
+        <v>-0.5485781517513858</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -2532,7 +2543,7 @@
         <v>-1.2815428222651091</v>
       </c>
       <c r="C180">
-        <v>-0.40788896610638808</v>
+        <v>-1.2815428222651091</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -2543,7 +2554,7 @@
         <v>-0.27272532998083948</v>
       </c>
       <c r="C181">
-        <v>-0.44602973340986501</v>
+        <v>-0.27272532998083948</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -2554,7 +2565,7 @@
         <v>-0.42911728912239272</v>
       </c>
       <c r="C182">
-        <v>-1.3707259211334879</v>
+        <v>-0.42911728912239272</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -2565,7 +2576,7 @@
         <v>-0.33923797295428593</v>
       </c>
       <c r="C183">
-        <v>0.33061907829614579</v>
+        <v>-0.33923797295428593</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -2576,7 +2587,7 @@
         <v>-1.2457219191869091</v>
       </c>
       <c r="C184">
-        <v>0.17741757977359349</v>
+        <v>-1.2457219191869091</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -2587,7 +2598,7 @@
         <v>-0.778856732918629</v>
       </c>
       <c r="C185">
-        <v>0.17092700381900219</v>
+        <v>-0.778856732918629</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -2598,7 +2609,7 @@
         <v>0.5285836343858199</v>
       </c>
       <c r="C186">
-        <v>8.037535422512998E-2</v>
+        <v>0.5285836343858199</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -2609,7 +2620,7 @@
         <v>-0.29143080884291561</v>
       </c>
       <c r="C187">
-        <v>0.82017960384486699</v>
+        <v>-0.29143080884291561</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -2620,7 +2631,7 @@
         <v>-1.597951435881382</v>
       </c>
       <c r="C188">
-        <v>-0.92468077606852184</v>
+        <v>-1.597951435881382</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -2631,7 +2642,7 @@
         <v>-0.32415447066839809</v>
       </c>
       <c r="C189">
-        <v>0.76118310531654554</v>
+        <v>-0.32415447066839809</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -2642,7 +2653,7 @@
         <v>-1.955420045981284</v>
       </c>
       <c r="C190">
-        <v>-1.6235671959504101</v>
+        <v>-1.955420045981284</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -2653,7 +2664,7 @@
         <v>-0.83010823572951686</v>
       </c>
       <c r="C191">
-        <v>0.17558406352214651</v>
+        <v>-0.83010823572951686</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -2664,7 +2675,7 @@
         <v>1.303157176592989</v>
       </c>
       <c r="C192">
-        <v>-0.24649658089406931</v>
+        <v>1.303157176592989</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -2675,7 +2686,7 @@
         <v>-0.87502279833132135</v>
       </c>
       <c r="C193">
-        <v>-1.3623993824358891</v>
+        <v>-0.87502279833132135</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -2686,7 +2697,7 @@
         <v>2.5634006446701819E-2</v>
       </c>
       <c r="C194">
-        <v>0.14068522040025849</v>
+        <v>2.5634006446701819E-2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -2697,7 +2708,7 @@
         <v>-0.59944621223986616</v>
       </c>
       <c r="C195">
-        <v>-1.319328206205745</v>
+        <v>-0.59944621223986616</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -2708,7 +2719,7 @@
         <v>1.0562087901081469</v>
       </c>
       <c r="C196">
-        <v>1.3968101082074089</v>
+        <v>1.0562087901081469</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -2719,7 +2730,7 @@
         <v>0.47054493500989669</v>
       </c>
       <c r="C197">
-        <v>-0.36696831420887438</v>
+        <v>0.47054493500989669</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -2730,7 +2741,7 @@
         <v>0.87089072270155932</v>
       </c>
       <c r="C198">
-        <v>1.2049875887216459</v>
+        <v>0.87089072270155932</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -2741,7 +2752,7 @@
         <v>-0.943377102269643</v>
       </c>
       <c r="C199">
-        <v>-0.57621102926013046</v>
+        <v>-0.943377102269643</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -2752,7 +2763,7 @@
         <v>-0.79687003012620994</v>
       </c>
       <c r="C200">
-        <v>-0.54508223584885718</v>
+        <v>-0.79687003012620994</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -2763,7 +2774,7 @@
         <v>-0.34499605019304841</v>
       </c>
       <c r="C201">
-        <v>-1.0560428017487269</v>
+        <v>-0.34499605019304841</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -2774,7 +2785,7 @@
         <v>0.1695625703398716</v>
       </c>
       <c r="C202">
-        <v>-0.22465135987145571</v>
+        <v>0.1695625703398716</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -2785,7 +2796,7 @@
         <v>-0.54841007553208032</v>
       </c>
       <c r="C203">
-        <v>-0.77441417929705469</v>
+        <v>-0.54841007553208032</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -2796,7 +2807,7 @@
         <v>0.40561106733969188</v>
       </c>
       <c r="C204">
-        <v>0.66152202162764806</v>
+        <v>0.40561106733969188</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -2807,7 +2818,7 @@
         <v>5.5284602204893847E-2</v>
       </c>
       <c r="C205">
-        <v>8.9568116666187136E-2</v>
+        <v>5.5284602204893847E-2</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -2818,7 +2829,7 @@
         <v>-0.87486132779865766</v>
       </c>
       <c r="C206">
-        <v>-0.1920884198315719</v>
+        <v>-0.87486132779865766</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -2829,7 +2840,7 @@
         <v>1.056000210968794</v>
       </c>
       <c r="C207">
-        <v>0.38200220020348169</v>
+        <v>1.056000210968794</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -2840,7 +2851,7 @@
         <v>-1.5052693621527751</v>
       </c>
       <c r="C208">
-        <v>-0.73371245008985042</v>
+        <v>-1.5052693621527751</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -2851,7 +2862,7 @@
         <v>0.9840973591226696</v>
       </c>
       <c r="C209">
-        <v>0.50501452741436592</v>
+        <v>0.9840973591226696</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -2862,7 +2873,7 @@
         <v>0.74320110983466925</v>
       </c>
       <c r="C210">
-        <v>0.14036508429208819</v>
+        <v>0.74320110983466925</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -2873,7 +2884,7 @@
         <v>0.54695704858457972</v>
       </c>
       <c r="C211">
-        <v>0.56929943508580994</v>
+        <v>0.54695704858457972</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -2884,7 +2895,7 @@
         <v>-2.819879601761186</v>
       </c>
       <c r="C212">
-        <v>-1.7532948433791959</v>
+        <v>-2.819879601761186</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -2895,7 +2906,7 @@
         <v>-0.20764430065523909</v>
       </c>
       <c r="C213">
-        <v>-0.59290710276948611</v>
+        <v>-0.20764430065523909</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -2906,7 +2917,7 @@
         <v>1.2573660904603741</v>
       </c>
       <c r="C214">
-        <v>1.795681959322184</v>
+        <v>1.2573660904603741</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -2917,7 +2928,7 @@
         <v>-1.47025521945979</v>
       </c>
       <c r="C215">
-        <v>-1.911029834668974</v>
+        <v>-1.47025521945979</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -2928,7 +2939,7 @@
         <v>1.2523400619750169</v>
       </c>
       <c r="C216">
-        <v>0.22315231846254879</v>
+        <v>1.2523400619750169</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -2939,7 +2950,7 @@
         <v>0.30633449297009419</v>
       </c>
       <c r="C217">
-        <v>0.46680442744600709</v>
+        <v>0.30633449297009419</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -2950,7 +2961,7 @@
         <v>-0.70392268979021966</v>
       </c>
       <c r="C218">
-        <v>-0.45140044549351538</v>
+        <v>-0.70392268979021966</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -2961,7 +2972,7 @@
         <v>-1.009068937965278</v>
       </c>
       <c r="C219">
-        <v>-0.21332169742971491</v>
+        <v>-1.009068937965278</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -2972,7 +2983,7 @@
         <v>-1.026770100947052</v>
       </c>
       <c r="C220">
-        <v>-0.6635299802806387</v>
+        <v>-1.026770100947052</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -2983,7 +2994,7 @@
         <v>-0.68983353425980931</v>
       </c>
       <c r="C221">
-        <v>0.2169596012915192</v>
+        <v>-0.68983353425980931</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -2994,7 +3005,7 @@
         <v>-0.98464027709181845</v>
       </c>
       <c r="C222">
-        <v>-0.77330445565785477</v>
+        <v>-0.98464027709181845</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -3005,7 +3016,7 @@
         <v>-1.08273873740018</v>
       </c>
       <c r="C223">
-        <v>-2.528132766595693</v>
+        <v>-1.08273873740018</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -3016,7 +3027,7 @@
         <v>0.55126029565601975</v>
       </c>
       <c r="C224">
-        <v>-0.85777276825358251</v>
+        <v>0.55126029565601975</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -3027,7 +3038,7 @@
         <v>0.20833725372590811</v>
       </c>
       <c r="C225">
-        <v>0.89467732043166281</v>
+        <v>0.20833725372590811</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -3038,7 +3049,7 @@
         <v>-0.71835123868260631</v>
       </c>
       <c r="C226">
-        <v>-0.15581494369139731</v>
+        <v>-0.71835123868260631</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -3049,7 +3060,7 @@
         <v>0.28100154993027432</v>
       </c>
       <c r="C227">
-        <v>-0.78320268774135382</v>
+        <v>0.28100154993027432</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -3060,7 +3071,7 @@
         <v>-1.5185096414189321</v>
       </c>
       <c r="C228">
-        <v>-2.6710432341350532</v>
+        <v>-1.5185096414189321</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -3071,7 +3082,7 @@
         <v>-1.526969640704686</v>
       </c>
       <c r="C229">
-        <v>-0.21746884608808331</v>
+        <v>-1.526969640704686</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -3082,7 +3093,7 @@
         <v>-0.50016545733223716</v>
       </c>
       <c r="C230">
-        <v>1.093168325738044</v>
+        <v>-0.50016545733223716</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -3093,7 +3104,7 @@
         <v>-1.920612330200576</v>
       </c>
       <c r="C231">
-        <v>-2.405149744955339</v>
+        <v>-1.920612330200576</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -3104,7 +3115,7 @@
         <v>-1.7140761137381331</v>
       </c>
       <c r="C232">
-        <v>-1.592203535686191</v>
+        <v>-1.7140761137381331</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -3115,7 +3126,7 @@
         <v>0.19605498399915239</v>
       </c>
       <c r="C233">
-        <v>0.35494787214318918</v>
+        <v>0.19605498399915239</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -3126,7 +3137,7 @@
         <v>1.3608402160168609</v>
       </c>
       <c r="C234">
-        <v>1.4754383874218431</v>
+        <v>1.3608402160168609</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -3137,7 +3148,7 @@
         <v>1.489589351437165</v>
       </c>
       <c r="C235">
-        <v>1.311023822753776</v>
+        <v>1.489589351437165</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -3148,7 +3159,7 @@
         <v>-0.61738011951630434</v>
       </c>
       <c r="C236">
-        <v>0.1349291059467303</v>
+        <v>-0.61738011951630434</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -3159,7 +3170,7 @@
         <v>0.50194605370105949</v>
       </c>
       <c r="C237">
-        <v>-0.17373450907681559</v>
+        <v>0.50194605370105949</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -3170,7 +3181,7 @@
         <v>-1.664189173090264</v>
       </c>
       <c r="C238">
-        <v>-1.6532540311172339</v>
+        <v>-1.664189173090264</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -3181,7 +3192,7 @@
         <v>-1.0818397998953031</v>
       </c>
       <c r="C239">
-        <v>-1.1743261956061819</v>
+        <v>-1.0818397998953031</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -3192,7 +3203,7 @@
         <v>-2.0789547059639419</v>
       </c>
       <c r="C240">
-        <v>-1.129243727811752</v>
+        <v>-2.0789547059639419</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -3203,7 +3214,7 @@
         <v>0.64839370663483809</v>
       </c>
       <c r="C241">
-        <v>0.84731036337555177</v>
+        <v>0.64839370663483809</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -3214,7 +3225,7 @@
         <v>-9.6571270669929613E-2</v>
       </c>
       <c r="C242">
-        <v>-0.2451409836727616</v>
+        <v>-9.6571270669929613E-2</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -3225,7 +3236,7 @@
         <v>0.1073680183304208</v>
       </c>
       <c r="C243">
-        <v>0.62973432256441308</v>
+        <v>0.1073680183304208</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -3236,7 +3247,7 @@
         <v>-1.462690508984791</v>
       </c>
       <c r="C244">
-        <v>-0.66889821078567702</v>
+        <v>-1.462690508984791</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -3247,7 +3258,7 @@
         <v>2.4609036132366602</v>
       </c>
       <c r="C245">
-        <v>2.1600751074572142</v>
+        <v>2.4609036132366602</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -3258,7 +3269,7 @@
         <v>0.6401953767103512</v>
       </c>
       <c r="C246">
-        <v>2.3374741148627781E-2</v>
+        <v>0.6401953767103512</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -3269,7 +3280,7 @@
         <v>-6.3515103409540752E-2</v>
       </c>
       <c r="C247">
-        <v>0.68397706034685546</v>
+        <v>-6.3515103409540752E-2</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -3280,7 +3291,7 @@
         <v>-0.60444232976658885</v>
       </c>
       <c r="C248">
-        <v>-0.96995002326199309</v>
+        <v>-0.60444232976658885</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -3291,7 +3302,7 @@
         <v>-0.79434579249862591</v>
       </c>
       <c r="C249">
-        <v>-0.42270011855729039</v>
+        <v>-0.79434579249862591</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -3302,7 +3313,7 @@
         <v>-0.18160994113319551</v>
       </c>
       <c r="C250">
-        <v>0.2088603560808461</v>
+        <v>-0.18160994113319551</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -3313,7 +3324,7 @@
         <v>0.59978877478317139</v>
       </c>
       <c r="C251">
-        <v>7.5105051713053331E-2</v>
+        <v>0.59978877478317139</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -3324,7 +3335,7 @@
         <v>2.8945523584797069E-2</v>
       </c>
       <c r="C252">
-        <v>-0.46951717924082442</v>
+        <v>2.8945523584797069E-2</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -3335,7 +3346,7 @@
         <v>-0.1227489478000659</v>
       </c>
       <c r="C253">
-        <v>1.199042929095844E-2</v>
+        <v>-0.1227489478000659</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -3346,7 +3357,7 @@
         <v>-7.1101731352318773E-2</v>
       </c>
       <c r="C254">
-        <v>0.1165865366944781</v>
+        <v>-7.1101731352318773E-2</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -3357,7 +3368,7 @@
         <v>8.833213420117958E-2</v>
       </c>
       <c r="C255">
-        <v>1.0973621190176091</v>
+        <v>8.833213420117958E-2</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -3368,7 +3379,7 @@
         <v>-4.8359545226380578E-2</v>
       </c>
       <c r="C256">
-        <v>-0.64490797871294658</v>
+        <v>-4.8359545226380578E-2</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -3379,7 +3390,7 @@
         <v>-0.50793916835989872</v>
       </c>
       <c r="C257">
-        <v>-0.59627519475905433</v>
+        <v>-0.50793916835989872</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -3390,7 +3401,7 @@
         <v>-1.0085547800749639</v>
       </c>
       <c r="C258">
-        <v>-1.1705422215313359</v>
+        <v>-1.0085547800749639</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -3401,7 +3412,7 @@
         <v>0.55164432413698172</v>
       </c>
       <c r="C259">
-        <v>1.169013377876452</v>
+        <v>0.55164432413698172</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -3412,7 +3423,7 @@
         <v>-1.044428935171305</v>
       </c>
       <c r="C260">
-        <v>-2.1747872599114548</v>
+        <v>-1.044428935171305</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -3423,7 +3434,7 @@
         <v>-0.1019892383406894</v>
       </c>
       <c r="C261">
-        <v>-0.21784818043921769</v>
+        <v>-0.1019892383406894</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -3434,7 +3445,7 @@
         <v>0.69740805877391643</v>
       </c>
       <c r="C262">
-        <v>0.42673197007908292</v>
+        <v>0.69740805877391643</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -3445,7 +3456,7 @@
         <v>1.3703963632296681</v>
       </c>
       <c r="C263">
-        <v>1.040877775697115</v>
+        <v>1.3703963632296681</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -3456,7 +3467,7 @@
         <v>-3.1678368088125693E-2</v>
       </c>
       <c r="C264">
-        <v>-0.216315764039898</v>
+        <v>-3.1678368088125693E-2</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -3467,7 +3478,7 @@
         <v>-1.082907728609009</v>
       </c>
       <c r="C265">
-        <v>-0.76214419530405153</v>
+        <v>-1.082907728609009</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -3478,7 +3489,7 @@
         <v>0.35310819899978141</v>
       </c>
       <c r="C266">
-        <v>0.67711571712743501</v>
+        <v>0.35310819899978141</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -3489,7 +3500,7 @@
         <v>0.48622914182622701</v>
       </c>
       <c r="C267">
-        <v>0.72072171826539744</v>
+        <v>0.48622914182622701</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -3500,7 +3511,7 @@
         <v>-0.72834539120084574</v>
       </c>
       <c r="C268">
-        <v>-0.48269751008355988</v>
+        <v>-0.72834539120084574</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -3511,7 +3522,7 @@
         <v>0.34524182164669948</v>
       </c>
       <c r="C269">
-        <v>1.281829455070618</v>
+        <v>0.34524182164669948</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -3522,7 +3533,7 @@
         <v>0.81661616316314722</v>
       </c>
       <c r="C270">
-        <v>1.090516939267155</v>
+        <v>0.81661616316314722</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -3533,7 +3544,7 @@
         <v>0.64073236112243281</v>
       </c>
       <c r="C271">
-        <v>0.20895584932131239</v>
+        <v>0.64073236112243281</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -3544,7 +3555,7 @@
         <v>-0.83178599327301717</v>
       </c>
       <c r="C272">
-        <v>0.37805677761837608</v>
+        <v>-0.83178599327301717</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -3555,7 +3566,7 @@
         <v>-0.61757224571066227</v>
       </c>
       <c r="C273">
-        <v>-0.1811406156682821</v>
+        <v>-0.61757224571066227</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -3566,7 +3577,7 @@
         <v>1.5309408607465449</v>
       </c>
       <c r="C274">
-        <v>0.47712449608833057</v>
+        <v>1.5309408607465449</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -3577,7 +3588,7 @@
         <v>0.70019097655922546</v>
       </c>
       <c r="C275">
-        <v>0.64958335028437963</v>
+        <v>0.70019097655922546</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -3588,7 +3599,7 @@
         <v>-0.29451202942794708</v>
       </c>
       <c r="C276">
-        <v>-0.5821237864553136</v>
+        <v>-0.29451202942794708</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -3599,7 +3610,7 @@
         <v>-1.1780003144402229</v>
       </c>
       <c r="C277">
-        <v>-0.97412822809882782</v>
+        <v>-1.1780003144402229</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -3610,7 +3621,7 @@
         <v>1.6420415874836209</v>
       </c>
       <c r="C278">
-        <v>0.1413355546059035</v>
+        <v>1.6420415874836209</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -3621,7 +3632,7 @@
         <v>-0.82446147985282958</v>
       </c>
       <c r="C279">
-        <v>-1.0802342595682779</v>
+        <v>-0.82446147985282958</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -3632,7 +3643,7 @@
         <v>-1.8028222722200939</v>
       </c>
       <c r="C280">
-        <v>-0.72209320352466133</v>
+        <v>-1.8028222722200939</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -3643,7 +3654,7 @@
         <v>-0.86042988726795588</v>
       </c>
       <c r="C281">
-        <v>-0.52284724163225349</v>
+        <v>-0.86042988726795588</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -3654,7 +3665,7 @@
         <v>0.87157954876616173</v>
       </c>
       <c r="C282">
-        <v>1.035891327971088</v>
+        <v>0.87157954876616173</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -3665,7 +3676,7 @@
         <v>1.586870221696828</v>
       </c>
       <c r="C283">
-        <v>2.3432237894423431</v>
+        <v>1.586870221696828</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -3676,7 +3687,7 @@
         <v>-1.177766596037968</v>
       </c>
       <c r="C284">
-        <v>-1.5486824016638669</v>
+        <v>-1.177766596037968</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -3687,7 +3698,7 @@
         <v>-0.26165109558585131</v>
       </c>
       <c r="C285">
-        <v>-8.8533820862001053E-2</v>
+        <v>-0.26165109558585131</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -3698,7 +3709,7 @@
         <v>-6.0130404562600652E-2</v>
       </c>
       <c r="C286">
-        <v>0.21787174873687271</v>
+        <v>-6.0130404562600652E-2</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -3709,7 +3720,7 @@
         <v>0.50148294565194007</v>
       </c>
       <c r="C287">
-        <v>0.23233864196788381</v>
+        <v>0.50148294565194007</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -3720,7 +3731,7 @@
         <v>0.71283945692255146</v>
       </c>
       <c r="C288">
-        <v>1.0094110215734</v>
+        <v>0.71283945692255146</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -3731,7 +3742,7 @@
         <v>2.941356444987719E-3</v>
       </c>
       <c r="C289">
-        <v>-0.20116275326368571</v>
+        <v>2.941356444987719E-3</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -3742,7 +3753,7 @@
         <v>0.138952039465398</v>
       </c>
       <c r="C290">
-        <v>1.5236853468760421</v>
+        <v>0.138952039465398</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -3753,7 +3764,7 @@
         <v>-0.24099414383792811</v>
       </c>
       <c r="C291">
-        <v>0.2855596908631971</v>
+        <v>-0.24099414383792811</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -3764,7 +3775,7 @@
         <v>1.294427776437217</v>
       </c>
       <c r="C292">
-        <v>1.2034294304915829</v>
+        <v>1.294427776437217</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -3775,7 +3786,7 @@
         <v>1.219054266040337</v>
       </c>
       <c r="C293">
-        <v>0.81691598667347753</v>
+        <v>1.219054266040337</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -3786,7 +3797,7 @@
         <v>-1.5826194795984729</v>
       </c>
       <c r="C294">
-        <v>-0.86502625262023436</v>
+        <v>-1.5826194795984729</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -3797,7 +3808,7 @@
         <v>1.3921671779847331</v>
       </c>
       <c r="C295">
-        <v>1.1126057728176499</v>
+        <v>1.3921671779847331</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -3808,7 +3819,7 @@
         <v>1.1252622456997621</v>
       </c>
       <c r="C296">
-        <v>0.91084119964991372</v>
+        <v>1.1252622456997621</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -3819,7 +3830,7 @@
         <v>-2.1352869909539631</v>
       </c>
       <c r="C297">
-        <v>-1.6125086130995401</v>
+        <v>-2.1352869909539631</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -3830,7 +3841,7 @@
         <v>0.12887543064685941</v>
       </c>
       <c r="C298">
-        <v>-0.66009862163197064</v>
+        <v>0.12887543064685941</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -3841,7 +3852,7 @@
         <v>0.17248290849145451</v>
       </c>
       <c r="C299">
-        <v>0.46616819420942762</v>
+        <v>0.17248290849145451</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -3852,7 +3863,7 @@
         <v>0.47051779337153932</v>
       </c>
       <c r="C300">
-        <v>2.020592751904712</v>
+        <v>0.47051779337153932</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -3863,7 +3874,7 @@
         <v>0.6712596593569008</v>
       </c>
       <c r="C301">
-        <v>0.43001553451428842</v>
+        <v>0.6712596593569008</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -3874,7 +3885,7 @@
         <v>0.35763389208007118</v>
       </c>
       <c r="C302">
-        <v>0.72088411011419606</v>
+        <v>0.35763389208007118</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -3885,7 +3896,7 @@
         <v>1.155783350960238</v>
       </c>
       <c r="C303">
-        <v>0.35645691872394097</v>
+        <v>1.155783350960238</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -3896,7 +3907,7 @@
         <v>-1.3818794400530201</v>
       </c>
       <c r="C304">
-        <v>-1.3892104317322771</v>
+        <v>-1.3818794400530201</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -3907,7 +3918,7 @@
         <v>1.4673537375517269</v>
       </c>
       <c r="C305">
-        <v>1.0668021221352411</v>
+        <v>1.4673537375517269</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -3918,7 +3929,7 @@
         <v>-0.62080724906640739</v>
       </c>
       <c r="C306">
-        <v>-0.29375483918664402</v>
+        <v>-0.62080724906640739</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -3929,7 +3940,7 @@
         <v>-1.34964559703265</v>
       </c>
       <c r="C307">
-        <v>-0.30491817635028362</v>
+        <v>-1.34964559703265</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -3940,7 +3951,7 @@
         <v>1.39515655426633</v>
       </c>
       <c r="C308">
-        <v>1.704999368491638</v>
+        <v>1.39515655426633</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -3951,7 +3962,7 @@
         <v>0.26216611844868848</v>
       </c>
       <c r="C309">
-        <v>0.25919280031348541</v>
+        <v>0.26216611844868848</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -3962,7 +3973,7 @@
         <v>-0.14165436215523061</v>
       </c>
       <c r="C310">
-        <v>0.7855966210524038</v>
+        <v>-0.14165436215523061</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -3973,7 +3984,7 @@
         <v>-2.5477508382226808</v>
       </c>
       <c r="C311">
-        <v>-2.251868344679731</v>
+        <v>-2.5477508382226808</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -3984,7 +3995,7 @@
         <v>-0.89250407380253505</v>
       </c>
       <c r="C312">
-        <v>-1.6191551481016571</v>
+        <v>-0.89250407380253505</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -3995,7 +4006,7 @@
         <v>-1.282468809791413</v>
       </c>
       <c r="C313">
-        <v>-1.937598646597529</v>
+        <v>-1.282468809791413</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -4006,7 +4017,7 @@
         <v>-0.20892149910134319</v>
       </c>
       <c r="C314">
-        <v>0.5380428205151504</v>
+        <v>-0.20892149910134319</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -4017,7 +4028,7 @@
         <v>1.1423382809945259</v>
       </c>
       <c r="C315">
-        <v>1.632785319236139</v>
+        <v>1.1423382809945259</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -4028,7 +4039,7 @@
         <v>1.012970732185114</v>
       </c>
       <c r="C316">
-        <v>0.787339509499832</v>
+        <v>1.012970732185114</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -4039,7 +4050,7 @@
         <v>-1.106369151094649</v>
       </c>
       <c r="C317">
-        <v>-0.84328104008952365</v>
+        <v>-1.106369151094649</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -4050,7 +4061,7 @@
         <v>-9.7694236835671217E-2</v>
       </c>
       <c r="C318">
-        <v>-0.46980986500379063</v>
+        <v>-9.7694236835671217E-2</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -4061,7 +4072,7 @@
         <v>-0.12756157375560309</v>
       </c>
       <c r="C319">
-        <v>0.28806680750185931</v>
+        <v>-0.12756157375560309</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -4072,7 +4083,7 @@
         <v>1.442386677885279</v>
       </c>
       <c r="C320">
-        <v>0.82326879301638656</v>
+        <v>1.442386677885279</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -4083,7 +4094,7 @@
         <v>-0.87496115973836719</v>
       </c>
       <c r="C321">
-        <v>0.17089164827770659</v>
+        <v>-0.87496115973836719</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -4094,7 +4105,7 @@
         <v>-0.76604840481914926</v>
       </c>
       <c r="C322">
-        <v>-0.30928622569616859</v>
+        <v>-0.76604840481914926</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -4105,7 +4116,7 @@
         <v>-1.8106230586527901</v>
       </c>
       <c r="C323">
-        <v>-0.98892660853329595</v>
+        <v>-1.8106230586527901</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -4116,7 +4127,7 @@
         <v>-5.0060454691677643E-2</v>
       </c>
       <c r="C324">
-        <v>0.64508017091389958</v>
+        <v>-5.0060454691677643E-2</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -4127,7 +4138,7 @@
         <v>-0.92352655018164365</v>
       </c>
       <c r="C325">
-        <v>-0.84490405510813216</v>
+        <v>-0.92352655018164365</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -4138,7 +4149,7 @@
         <v>-0.72824720084904349</v>
       </c>
       <c r="C326">
-        <v>-0.62108778651961427</v>
+        <v>-0.72824720084904349</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -4149,7 +4160,7 @@
         <v>1.9107046497705129</v>
       </c>
       <c r="C327">
-        <v>1.4394000463441281</v>
+        <v>1.9107046497705129</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -4160,7 +4171,7 @@
         <v>-0.13305096092921381</v>
       </c>
       <c r="C328">
-        <v>0.2294289098263754</v>
+        <v>-0.13305096092921381</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -4171,7 +4182,7 @@
         <v>-1.5044068823057171</v>
       </c>
       <c r="C329">
-        <v>-1.92827538282679</v>
+        <v>-1.5044068823057171</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -4182,7 +4193,7 @@
         <v>-0.15385953011634521</v>
       </c>
       <c r="C330">
-        <v>0.78541801197333927</v>
+        <v>-0.15385953011634521</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -4193,7 +4204,7 @@
         <v>-0.49982249305892268</v>
       </c>
       <c r="C331">
-        <v>-1.202643746191423</v>
+        <v>-0.49982249305892268</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -4204,7 +4215,7 @@
         <v>0.55758056046832472</v>
       </c>
       <c r="C332">
-        <v>1.2075911571281659</v>
+        <v>0.55758056046832472</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -4215,7 +4226,7 @@
         <v>0.34530665972677088</v>
       </c>
       <c r="C333">
-        <v>1.4705546977349291</v>
+        <v>0.34530665972677088</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -4226,7 +4237,7 @@
         <v>1.1394565791233069</v>
       </c>
       <c r="C334">
-        <v>1.1947974103982699</v>
+        <v>1.1394565791233069</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -4237,7 +4248,7 @@
         <v>0.61434770985595466</v>
       </c>
       <c r="C335">
-        <v>0.747387652236016</v>
+        <v>0.61434770985595466</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
@@ -4248,7 +4259,7 @@
         <v>-1.9311093104902779</v>
       </c>
       <c r="C336">
-        <v>-1.0875811843821279</v>
+        <v>-1.9311093104902779</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -4259,7 +4270,7 @@
         <v>-9.6745481695446112E-2</v>
       </c>
       <c r="C337">
-        <v>-0.44543867836670997</v>
+        <v>-9.6745481695446112E-2</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -4270,7 +4281,7 @@
         <v>0.63568704115657082</v>
       </c>
       <c r="C338">
-        <v>0.47255197953965578</v>
+        <v>0.63568704115657082</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -4281,7 +4292,7 @@
         <v>0.79934515402698569</v>
       </c>
       <c r="C339">
-        <v>0.77077252413392949</v>
+        <v>0.79934515402698569</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -4292,7 +4303,7 @@
         <v>0.27990787163064929</v>
       </c>
       <c r="C340">
-        <v>1.3056392265125361</v>
+        <v>0.27990787163064929</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -4303,7 +4314,7 @@
         <v>-0.8478680505083831</v>
       </c>
       <c r="C341">
-        <v>-0.78773335732749972</v>
+        <v>-0.8478680505083831</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -4314,7 +4325,7 @@
         <v>-0.41130859124539382</v>
       </c>
       <c r="C342">
-        <v>-0.75330731795277328</v>
+        <v>-0.41130859124539382</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -4325,7 +4336,7 @@
         <v>-0.60917252243142994</v>
       </c>
       <c r="C343">
-        <v>-1.1406321248682429</v>
+        <v>-0.60917252243142994</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -4336,7 +4347,7 @@
         <v>0.92926401987018803</v>
       </c>
       <c r="C344">
-        <v>1.522969866264108</v>
+        <v>0.92926401987018803</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -4347,7 +4358,7 @@
         <v>-0.16995757500700359</v>
       </c>
       <c r="C345">
-        <v>0.19354963897079319</v>
+        <v>-0.16995757500700359</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -4358,7 +4369,7 @@
         <v>4.5692953814227548E-2</v>
       </c>
       <c r="C346">
-        <v>0.8625842133311804</v>
+        <v>4.5692953814227548E-2</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -4369,7 +4380,7 @@
         <v>0.39693623306010289</v>
       </c>
       <c r="C347">
-        <v>-0.51755390676404844</v>
+        <v>0.39693623306010289</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -4380,7 +4391,7 @@
         <v>1.5300857260847871</v>
       </c>
       <c r="C348">
-        <v>1.8121225782982799</v>
+        <v>1.5300857260847871</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -4391,7 +4402,7 @@
         <v>0.30473061254527029</v>
       </c>
       <c r="C349">
-        <v>-0.39531926948168639</v>
+        <v>0.30473061254527029</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -4402,7 +4413,7 @@
         <v>0.57195235864905336</v>
       </c>
       <c r="C350">
-        <v>0.76872723080402316</v>
+        <v>0.57195235864905336</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -4413,7 +4424,7 @@
         <v>0.1674612635015548</v>
       </c>
       <c r="C351">
-        <v>-0.1975679582844759</v>
+        <v>0.1674612635015548</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -4424,7 +4435,7 @@
         <v>-6.3682296546961822E-2</v>
       </c>
       <c r="C352">
-        <v>-0.19592651661570321</v>
+        <v>-6.3682296546961822E-2</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -4435,7 +4446,7 @@
         <v>0.57929667598590773</v>
       </c>
       <c r="C353">
-        <v>7.0156267241741233E-2</v>
+        <v>0.57929667598590773</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -4446,7 +4457,7 @@
         <v>3.7953880801053969E-2</v>
       </c>
       <c r="C354">
-        <v>0.34369288333023412</v>
+        <v>3.7953880801053969E-2</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -4457,7 +4468,7 @@
         <v>-2.448032607307649</v>
       </c>
       <c r="C355">
-        <v>-2.0178420731389268</v>
+        <v>-2.448032607307649</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -4468,7 +4479,7 @@
         <v>0.10264844533741529</v>
       </c>
       <c r="C356">
-        <v>-2.1456428727578549E-2</v>
+        <v>0.10264844533741529</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -4479,7 +4490,7 @@
         <v>-0.5772436841121974</v>
       </c>
       <c r="C357">
-        <v>-1.2455718934235049</v>
+        <v>-0.5772436841121974</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -4490,7 +4501,7 @@
         <v>0.35056622211405691</v>
       </c>
       <c r="C358">
-        <v>0.19118203782117801</v>
+        <v>0.35056622211405691</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -4501,7 +4512,7 @@
         <v>0.13358796195229511</v>
       </c>
       <c r="C359">
-        <v>1.0884625108571799E-2</v>
+        <v>0.13358796195229511</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -4512,7 +4523,7 @@
         <v>1.730682390410106E-2</v>
       </c>
       <c r="C360">
-        <v>4.6997785225841623E-2</v>
+        <v>1.730682390410106E-2</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -4523,7 +4534,7 @@
         <v>1.7250699873451649</v>
       </c>
       <c r="C361">
-        <v>1.2256349745783901</v>
+        <v>1.7250699873451649</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -4534,7 +4545,7 @@
         <v>0.92353364945632455</v>
       </c>
       <c r="C362">
-        <v>0.39568239618384099</v>
+        <v>0.92353364945632455</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -4545,7 +4556,7 @@
         <v>-1.9232931668252771</v>
       </c>
       <c r="C363">
-        <v>-2.097251890335242</v>
+        <v>-1.9232931668252771</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -4556,7 +4567,7 @@
         <v>-1.1567951833678529</v>
       </c>
       <c r="C364">
-        <v>-1.0108610770028119</v>
+        <v>-1.1567951833678529</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -4567,7 +4578,7 @@
         <v>-0.23175616070299471</v>
       </c>
       <c r="C365">
-        <v>0.24933755092345769</v>
+        <v>-0.23175616070299471</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -4578,7 +4589,7 @@
         <v>1.913771153473538</v>
       </c>
       <c r="C366">
-        <v>0.67779254237006925</v>
+        <v>1.913771153473538</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -4589,7 +4600,7 @@
         <v>0.1145112259920721</v>
       </c>
       <c r="C367">
-        <v>-2.7763375328082162E-3</v>
+        <v>0.1145112259920721</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -4600,7 +4611,7 @@
         <v>0.62415270825226965</v>
       </c>
       <c r="C368">
-        <v>0.59980429528906076</v>
+        <v>0.62415270825226965</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -4611,7 +4622,7 @@
         <v>-0.61703121012633733</v>
       </c>
       <c r="C369">
-        <v>-0.6830138992461593</v>
+        <v>-0.61703121012633733</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -4622,7 +4633,7 @@
         <v>-0.38739386812541082</v>
       </c>
       <c r="C370">
-        <v>0.49656712581250001</v>
+        <v>-0.38739386812541082</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -4633,7 +4644,7 @@
         <v>-0.73554796343883588</v>
       </c>
       <c r="C371">
-        <v>-2.1163246074424822</v>
+        <v>-0.73554796343883588</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -4644,7 +4655,7 @@
         <v>0.61184824781616476</v>
       </c>
       <c r="C372">
-        <v>1.3575888146150581</v>
+        <v>0.61184824781616476</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -4655,7 +4666,7 @@
         <v>-0.3641975052510299</v>
       </c>
       <c r="C373">
-        <v>-9.4838066804789744E-3</v>
+        <v>-0.3641975052510299</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -4666,7 +4677,7 @@
         <v>-1.140799701807663</v>
       </c>
       <c r="C374">
-        <v>-0.44078737811761798</v>
+        <v>-1.140799701807663</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -4677,7 +4688,7 @@
         <v>-0.42053587347182381</v>
       </c>
       <c r="C375">
-        <v>-0.72996510952933547</v>
+        <v>-0.42053587347182381</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -4688,7 +4699,7 @@
         <v>-1.6964953287527069</v>
       </c>
       <c r="C376">
-        <v>-1.4377185404404</v>
+        <v>-1.6964953287527069</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -4699,7 +4710,7 @@
         <v>-0.90145624852042905</v>
       </c>
       <c r="C377">
-        <v>-0.24665481001949741</v>
+        <v>-0.90145624852042905</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -4710,7 +4721,7 @@
         <v>0.44726998098850262</v>
       </c>
       <c r="C378">
-        <v>0.33270693981416039</v>
+        <v>0.44726998098850262</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -4721,7 +4732,7 @@
         <v>1.062424558758998</v>
       </c>
       <c r="C379">
-        <v>1.095734679700525</v>
+        <v>1.062424558758998</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -4732,7 +4743,7 @@
         <v>-0.55272758863568927</v>
       </c>
       <c r="C380">
-        <v>-0.231279373696051</v>
+        <v>-0.55272758863568927</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -4743,7 +4754,7 @@
         <v>-0.29606302576798182</v>
       </c>
       <c r="C381">
-        <v>-0.8728559781267361</v>
+        <v>-0.29606302576798182</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -4754,7 +4765,7 @@
         <v>0.40607656154214888</v>
       </c>
       <c r="C382">
-        <v>0.47883416512058691</v>
+        <v>0.40607656154214888</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -4765,7 +4776,7 @@
         <v>-1.1013502440809559</v>
       </c>
       <c r="C383">
-        <v>-1.1439835820079509</v>
+        <v>-1.1013502440809559</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -4776,7 +4787,7 @@
         <v>0.62672399646158883</v>
       </c>
       <c r="C384">
-        <v>1.342393937535191</v>
+        <v>0.62672399646158883</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -4787,7 +4798,7 @@
         <v>-1.3867364427196851</v>
       </c>
       <c r="C385">
-        <v>-0.95912681062419791</v>
+        <v>-1.3867364427196851</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -4798,7 +4809,7 @@
         <v>-0.59960596001184352</v>
       </c>
       <c r="C386">
-        <v>-1.473653041871593</v>
+        <v>-0.59960596001184352</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -4809,7 +4820,7 @@
         <v>-5.351047772211423E-2</v>
       </c>
       <c r="C387">
-        <v>-0.10329589581089441</v>
+        <v>-5.351047772211423E-2</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -4820,7 +4831,7 @@
         <v>1.3002062038803881</v>
       </c>
       <c r="C388">
-        <v>2.0546146953741751</v>
+        <v>1.3002062038803881</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -4831,7 +4842,7 @@
         <v>0.99675629597017701</v>
       </c>
       <c r="C389">
-        <v>0.89343388860765161</v>
+        <v>0.99675629597017701</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -4842,7 +4853,7 @@
         <v>0.58562920594199031</v>
       </c>
       <c r="C390">
-        <v>1.0165924760501019</v>
+        <v>0.58562920594199031</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -4853,7 +4864,7 @@
         <v>9.1856213802840259E-2</v>
       </c>
       <c r="C391">
-        <v>-0.99009728289270726</v>
+        <v>9.1856213802840259E-2</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -4864,7 +4875,7 @@
         <v>-1.670419868015782</v>
       </c>
       <c r="C392">
-        <v>-0.59419948819914192</v>
+        <v>-1.670419868015782</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -4875,7 +4886,7 @@
         <v>-1.3745102490220349</v>
       </c>
       <c r="C393">
-        <v>-1.0346117167645399</v>
+        <v>-1.3745102490220349</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -4886,7 +4897,7 @@
         <v>-0.19713794910339269</v>
       </c>
       <c r="C394">
-        <v>0.29779880762247363</v>
+        <v>-0.19713794910339269</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -4897,7 +4908,7 @@
         <v>-0.26315907580280878</v>
       </c>
       <c r="C395">
-        <v>0.37245491715940371</v>
+        <v>-0.26315907580280878</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -4908,7 +4919,7 @@
         <v>0.15128101432156349</v>
       </c>
       <c r="C396">
-        <v>0.88470740865953024</v>
+        <v>0.15128101432156349</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -4919,7 +4930,7 @@
         <v>1.229068205499724</v>
       </c>
       <c r="C397">
-        <v>0.18423563613905861</v>
+        <v>1.229068205499724</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -4930,7 +4941,7 @@
         <v>-0.24534742616974139</v>
       </c>
       <c r="C398">
-        <v>-2.011974272364116E-2</v>
+        <v>-0.24534742616974139</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -4941,7 +4952,7 @@
         <v>0.76803935148387337</v>
       </c>
       <c r="C399">
-        <v>0.83123911329712086</v>
+        <v>0.76803935148387337</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -4952,7 +4963,7 @@
         <v>0.49338376441310661</v>
       </c>
       <c r="C400">
-        <v>0.40586423548064943</v>
+        <v>0.49338376441310661</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -4963,7 +4974,7 @@
         <v>2.1871274270174088</v>
       </c>
       <c r="C401">
-        <v>0.73330267670628868</v>
+        <v>2.1871274270174088</v>
       </c>
     </row>
   </sheetData>
@@ -5018,7 +5029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8606CF1-6AE1-40A5-A03F-BADD4D168033}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
